--- a/uploads/simpanan.xlsx
+++ b/uploads/simpanan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vysco Zyza\3D Objects\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vysco Zyza\3D Objects\Kanwil-BRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41139F41-E91D-4BAB-9B58-0D7E557A5474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E201C49A-38E9-4F77-9BBE-626A609236F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="353" windowWidth="26301" windowHeight="14427" xr2:uid="{B8E3E15D-F79C-4875-95FF-DA9D1CC9673C}"/>
+    <workbookView xWindow="10868" yWindow="4334" windowWidth="13857" windowHeight="7268" xr2:uid="{B8E3E15D-F79C-4875-95FF-DA9D1CC9673C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>8301002191304</v>
       </c>
       <c r="E2" s="8">
-        <v>431781778</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>8301002234306</v>
       </c>
       <c r="E3" s="8">
-        <v>1356397</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>8301002235302</v>
       </c>
       <c r="E4" s="8">
-        <v>203478308</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>8301002467307</v>
       </c>
       <c r="E5" s="8">
-        <v>6927477827</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>8301002596300</v>
       </c>
       <c r="E9" s="8">
-        <v>1000000000</v>
+        <v>1417432</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>8302000037306</v>
       </c>
       <c r="E10" s="8">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
